--- a/data/DIRECTORY_LAGOS_PROVINCE_48.xlsx
+++ b/data/DIRECTORY_LAGOS_PROVINCE_48.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="424">
   <si>
     <t>NAME OF PARISH/ AREA</t>
   </si>
@@ -1289,6 +1289,12 @@
   </si>
   <si>
     <t>S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -1377,8 +1383,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1688,8 +1694,8 @@
   </sheetPr>
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1753,7 +1759,9 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -1839,7 +1847,9 @@
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -1881,7 +1891,9 @@
       <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
@@ -1901,7 +1913,9 @@
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
@@ -1987,7 +2001,9 @@
       <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
@@ -2007,7 +2023,9 @@
       <c r="E18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -2049,7 +2067,9 @@
       <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
@@ -2069,7 +2089,9 @@
       <c r="E22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
@@ -2089,7 +2111,9 @@
       <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
@@ -2175,7 +2199,9 @@
       <c r="E28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -2195,7 +2221,9 @@
       <c r="E29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -2237,7 +2265,9 @@
       <c r="E32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -2279,7 +2309,9 @@
       <c r="E34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -2365,7 +2397,9 @@
       <c r="E39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -2385,7 +2419,9 @@
       <c r="E40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -2471,7 +2507,9 @@
       <c r="E45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -2557,7 +2595,9 @@
       <c r="E50" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -2577,7 +2617,9 @@
       <c r="E51" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
@@ -2641,7 +2683,9 @@
       <c r="E55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
@@ -2661,7 +2705,9 @@
       <c r="E56" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -2769,7 +2815,9 @@
       <c r="E62" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
@@ -2789,7 +2837,9 @@
       <c r="E63" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
@@ -2809,7 +2859,9 @@
       <c r="E64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
@@ -2829,7 +2881,9 @@
       <c r="E65" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
@@ -2849,7 +2903,9 @@
       <c r="E66" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
@@ -3065,7 +3121,9 @@
       <c r="E78" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
@@ -3129,7 +3187,9 @@
       <c r="E82" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
@@ -3149,7 +3209,9 @@
       <c r="E83" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
@@ -3257,7 +3319,9 @@
       <c r="E90" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
@@ -3277,7 +3341,9 @@
       <c r="E91" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
@@ -3297,7 +3363,9 @@
       <c r="E92" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
@@ -3383,7 +3451,9 @@
       <c r="E97" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
@@ -3403,7 +3473,9 @@
       <c r="E98" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
@@ -3423,7 +3495,9 @@
       <c r="E99" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
@@ -3443,7 +3517,9 @@
       <c r="E100" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
@@ -3463,7 +3539,9 @@
       <c r="E101" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
@@ -3505,7 +3583,9 @@
       <c r="E103" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
@@ -3613,7 +3693,9 @@
       <c r="E110" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
@@ -3633,7 +3715,9 @@
       <c r="E111" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
@@ -3653,7 +3737,9 @@
       <c r="E112" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
@@ -3673,7 +3759,9 @@
       <c r="E113" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
@@ -3737,7 +3825,9 @@
       <c r="E117" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
@@ -3757,7 +3847,9 @@
       <c r="E118" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
@@ -3777,7 +3869,9 @@
       <c r="E119" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
@@ -3841,7 +3935,9 @@
       <c r="E123" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
@@ -3905,7 +4001,9 @@
       <c r="E127" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
@@ -3925,7 +4023,9 @@
       <c r="E128" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
@@ -4099,7 +4199,9 @@
       <c r="E138" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
@@ -4113,15 +4215,15 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
+    <row r="140" spans="1:8" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/data/DIRECTORY_LAGOS_PROVINCE_48.xlsx
+++ b/data/DIRECTORY_LAGOS_PROVINCE_48.xlsx
@@ -151,9 +151,6 @@
     <t>08038050574</t>
   </si>
   <si>
-    <t>5 BAYO AKINYEMI STREET,  EYITA ZONE 2, OGIJO, OGUN STATE</t>
-  </si>
-  <si>
     <t>rccgthephiladelphiachurch@gmail.com</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
     <t>08038066180</t>
   </si>
   <si>
-    <t>23/25 EMMANUEL HIGH STREET OGUDU  OJOTA LAGOS.</t>
-  </si>
-  <si>
     <t>SPRING OF LIFE</t>
   </si>
   <si>
@@ -421,9 +415,6 @@
     <t>08056455474</t>
   </si>
   <si>
-    <t>28, ZAMBA STREET, OFF LAWANSON ROAD, SURULERE, LAGOS.</t>
-  </si>
-  <si>
     <t>KINGDOM LIFE CHAPEL</t>
   </si>
   <si>
@@ -433,9 +424,6 @@
     <t>08073903536</t>
   </si>
   <si>
-    <t>2A, BELLO TAPA  STREET, FAVBARN SCHOOL, OFF ABBI AVENUE, ORILE-IGANMU, LAGOS.</t>
-  </si>
-  <si>
     <t>juliusoluyede2018@gmail.com</t>
   </si>
   <si>
@@ -580,9 +568,6 @@
     <t>08033151108</t>
   </si>
   <si>
-    <t>5/7 OWOLABI STREET, OKOTA ISOLO LAGOS</t>
-  </si>
-  <si>
     <t>FOUNTAIN OF MERCY</t>
   </si>
   <si>
@@ -688,9 +673,6 @@
     <t>07066648695</t>
   </si>
   <si>
-    <t>DESIRE STREET, EWUJOMO IGBOSORO OFF FAKALE ROAD OGUN STATE</t>
-  </si>
-  <si>
     <t>rccgpowerhouse2@gmail.com</t>
   </si>
   <si>
@@ -763,9 +745,6 @@
     <t>08026586933</t>
   </si>
   <si>
-    <t>86, FREEMAN STREET, LAGOS ISLAND, LAGOS</t>
-  </si>
-  <si>
     <t>opemike@yahoo.com</t>
   </si>
   <si>
@@ -805,9 +784,6 @@
     <t>08024582074</t>
   </si>
   <si>
-    <t>21, ASSOCIATION WAY, YAKOYO, OJODU, LAGOS.</t>
-  </si>
-  <si>
     <t>rccghouseofjoy247@gmail.com</t>
   </si>
   <si>
@@ -889,9 +865,6 @@
     <t>08033563219</t>
   </si>
   <si>
-    <t>119 OGUNDAIRO ST AGO BRIDGE Ago Palace way, Okota, Isolo, Lagos.</t>
-  </si>
-  <si>
     <t>chididurua@gmail.com</t>
   </si>
   <si>
@@ -943,9 +916,6 @@
     <t>09011668843</t>
   </si>
   <si>
-    <t>LOGIC PALM ESTATE ROAD Abijo off Lekki EPE Exp way Abijo</t>
-  </si>
-  <si>
     <t>RCCG FOUNTAIN OF GRACE</t>
   </si>
   <si>
@@ -997,9 +967,6 @@
     <t>08023293370</t>
   </si>
   <si>
-    <t>Oguntedo Road,Ketu Adie-Owe,Lusada-Agbara,by Crawford University,    Ogun State.</t>
-  </si>
-  <si>
     <t>jideanthony@yahoo.com</t>
   </si>
   <si>
@@ -1012,9 +979,6 @@
     <t>08097237360</t>
   </si>
   <si>
-    <t>ST GERMAINE COLLEGE, OPPOSITE TOTAL FILLING STATION, ILOGBO FIRST ROUND ABOUT, ERA ROAD, OFF BADAGRY EXPRESSWAY</t>
-  </si>
-  <si>
     <t>eyabareambrose@yahoo.com</t>
   </si>
   <si>
@@ -1054,9 +1018,6 @@
     <t>08038551791</t>
   </si>
   <si>
-    <t>UNITY CRESCENT Gasline, AGBAAGI Lerin/Baamu via Solu Town Ifo Ogun State.</t>
-  </si>
-  <si>
     <t>PLACE OF REFUGE</t>
   </si>
   <si>
@@ -1150,9 +1111,6 @@
     <t>08094953608</t>
   </si>
   <si>
-    <t>LANE 2, BPP ESTATE, AGBEDE TRANSFORMER, BY ODUGBOSE B/STOP, IKORODU, LAGOS</t>
-  </si>
-  <si>
     <t>Area 023</t>
   </si>
   <si>
@@ -1237,9 +1195,6 @@
     <t>08066664648</t>
   </si>
   <si>
-    <t>Nos1 Bode Ojejunmi Road Ladegoye ikorodu</t>
-  </si>
-  <si>
     <t>rccgoverflowassembly@yahoo.com</t>
   </si>
   <si>
@@ -1252,9 +1207,6 @@
     <t>07033214857</t>
   </si>
   <si>
-    <t>No 1, Akasolori Estate beside NNPC filling station adjacent Jendol supermarket Ikorodu Lagos State.</t>
-  </si>
-  <si>
     <t>rccgthroneofgrace2000@gmail.com</t>
   </si>
   <si>
@@ -1285,9 +1237,6 @@
     <t>08030689457</t>
   </si>
   <si>
-    <t>4 JADESHOLA OSHODI STREET (OFF BROWN ROAD)  AGUDA SURULERE LAGOS</t>
-  </si>
-  <si>
     <t>S/N</t>
   </si>
   <si>
@@ -1298,6 +1247,57 @@
   </si>
   <si>
     <t>AREA CODE</t>
+  </si>
+  <si>
+    <t>St germaine college, opp. total filling station, ilogbo 1st round about, era road, off badagry expressway</t>
+  </si>
+  <si>
+    <t>Oguntedo Road,Ketu Adie-Owe,Lusada-Agbara,by Crawford University,   Ogun State.</t>
+  </si>
+  <si>
+    <t>Lane 2, bpp estate, agbede transformer, by odugbose b/stop, ikorodu, lagos</t>
+  </si>
+  <si>
+    <t>4 jadeshola oshodi street (off brown road)  aguda surulere lagos</t>
+  </si>
+  <si>
+    <t>1, Akasolori Estate beside NNPC filling station adjacent Jendol supermarket Ikorodu Lagos State.</t>
+  </si>
+  <si>
+    <t>1 Bode Ojejunmi Road Ladegoye ikorodu</t>
+  </si>
+  <si>
+    <t>28, zamba street, off lawanson road, surulere, lagos.</t>
+  </si>
+  <si>
+    <t>2a, bello tapa  street, favbarn school, off abbi avenue, orile-iganmu, lagos.</t>
+  </si>
+  <si>
+    <t>23/25 emmanuel high street ogudu  ojota lagos.</t>
+  </si>
+  <si>
+    <t>5/7 owolabi street, okota isolo lagos</t>
+  </si>
+  <si>
+    <t>Desire street, ewujomo igbosoro off fakale road ogun state</t>
+  </si>
+  <si>
+    <t>86, freeman street, lagos island, lagos</t>
+  </si>
+  <si>
+    <t>21, association way, yakoyo, ojodu, lagos.</t>
+  </si>
+  <si>
+    <t>Unity crescent gasline, agbaagi lerin/baamu via solu town ifo ogun state.</t>
+  </si>
+  <si>
+    <t>Logic palm estate road abijo off lekki epe exp way abijo</t>
+  </si>
+  <si>
+    <t>119 ogundairo st ago bridge ago palace way, okota, isolo, lagos.</t>
+  </si>
+  <si>
+    <t>5 bayo akinyemi street,  eyita zone 2, ogijo, ogun state</t>
   </si>
 </sst>
 </file>
@@ -1705,8 +1705,8 @@
   </sheetPr>
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1722,10 +1722,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1840,7 +1840,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1865,7 +1865,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1890,7 +1890,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1936,11 +1936,11 @@
       <c r="E9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1950,22 +1950,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1975,22 +1975,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2000,22 +2000,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2025,22 +2025,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2050,22 +2050,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2075,22 +2075,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2100,22 +2100,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2125,22 +2125,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2150,22 +2150,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2175,22 +2175,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2200,22 +2200,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2225,22 +2225,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>98</v>
+      <c r="F21" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2250,22 +2250,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2275,22 +2275,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2300,22 +2300,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2325,22 +2325,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2350,22 +2350,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2375,22 +2375,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2400,22 +2400,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>132</v>
+      <c r="F28" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2425,22 +2425,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2450,22 +2450,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2475,22 +2475,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2500,22 +2500,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2525,22 +2525,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2550,22 +2550,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2575,22 +2575,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2600,22 +2600,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2625,22 +2625,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2650,22 +2650,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2675,22 +2675,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>417</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2700,22 +2700,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2725,22 +2725,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2750,22 +2750,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2775,22 +2775,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2800,22 +2800,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2825,22 +2825,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2850,22 +2850,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2875,22 +2875,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2900,22 +2900,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2925,22 +2925,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2950,22 +2950,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2975,22 +2975,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3000,22 +3000,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3025,22 +3025,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3050,22 +3050,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3075,22 +3075,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3100,22 +3100,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3125,22 +3125,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3150,22 +3150,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3175,22 +3175,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3200,22 +3200,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3225,22 +3225,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>423</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3250,22 +3250,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3275,22 +3275,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3300,22 +3300,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3325,22 +3325,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3350,22 +3350,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3375,22 +3375,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3400,22 +3400,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3425,22 +3425,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3450,22 +3450,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>408</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3475,22 +3475,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3500,22 +3500,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3525,22 +3525,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3550,22 +3550,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3575,22 +3575,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3600,22 +3600,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3625,22 +3625,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3650,22 +3650,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -3675,22 +3675,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -3700,22 +3700,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>375</v>
+        <v>361</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>410</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -3725,22 +3725,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -3750,22 +3750,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -3775,22 +3775,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -3800,22 +3800,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -3825,22 +3825,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -3850,22 +3850,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>413</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -3875,22 +3875,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>409</v>
+        <v>393</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -3900,22 +3900,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -3925,22 +3925,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
